--- a/peringkat.xlsx
+++ b/peringkat.xlsx
@@ -441,17 +441,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>servis</t>
+          <t>services</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>harga</t>
+          <t>prices</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sugeno</t>
+          <t>sugeno results</t>
         </is>
       </c>
     </row>
